--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\арсений\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E48C312-324B-354A-B306-06091F674F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5262A8A6-0A4C-0643-A766-F0BD01DE9ABA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -72,12 +71,15 @@
   </si>
   <si>
     <t>45637583484293</t>
+  </si>
+  <si>
+    <t>27.11.2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -108,10 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -425,21 +426,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87CD0A9-BF1F-3C4B-8E63-0E2F2F1D3489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -473,7 +474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -487,15 +488,15 @@
         <v>678567.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
-        <v>42274</v>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D4">
         <v>5623491.0999999996</v>
